--- a/Pessoas.xlsx
+++ b/Pessoas.xlsx
@@ -571,7 +571,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -579,13 +579,24 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00aabedd"/>
+        <bgColor rgb="00aabedd"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -600,8 +611,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -908,31 +920,31 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
